--- a/Unity/Assets/Config/Excel/AbilityConfig/MoveTweenConfig/MoveTweenCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/MoveTweenConfig/MoveTweenCfg.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\MoveTweenConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\MoveTweenConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23810BA-3552-4C43-8F34-41C9D0BF32AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC38052F-14ED-4338-A074-01905D7AC7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
   <si>
     <t>##var</t>
   </si>
@@ -198,11 +187,48 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0;20;0;4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Parabola_4</t>
+    <t>Around_0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;0;0;0;0;0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;10;0;4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveTween_Parabola_Rocket</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target_MagicBall</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;10;0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>MoveTween_Straight_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>crystal</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;30;0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -353,7 +379,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
@@ -362,6 +388,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -650,27 +679,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="7" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="7" customWidth="1"/>
     <col min="4" max="4" width="37" style="7" customWidth="1"/>
-    <col min="5" max="5" width="25.109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="28.88671875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="31.6640625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="25.125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="28.875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="31.625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="19.5" style="7" customWidth="1"/>
     <col min="9" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -685,10 +714,10 @@
       <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="8"/>
+      <c r="H1" s="9"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -701,7 +730,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -728,7 +757,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -743,10 +772,10 @@
       <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="10"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -759,7 +788,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -784,7 +813,7 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -817,7 +846,7 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
         <v>15</v>
       </c>
@@ -835,7 +864,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
@@ -853,7 +882,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
         <v>15</v>
       </c>
@@ -871,7 +900,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
@@ -879,7 +908,7 @@
         <v>30</v>
       </c>
       <c r="D9" s="7" t="str">
-        <f t="shared" ref="D9:D13" si="0">B9&amp;"_"&amp;C9</f>
+        <f t="shared" ref="D9:D14" si="0">B9&amp;"_"&amp;C9</f>
         <v>MoveTween_Tracking_2_50</v>
       </c>
       <c r="G9" s="7" t="s">
@@ -889,130 +918,170 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="7" t="str">
+        <f t="shared" ref="D10" si="1">B10&amp;"_"&amp;C10</f>
+        <v>MoveTween_Around_0</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="7" t="str">
+      <c r="D11" s="7" t="str">
         <f t="shared" si="0"/>
         <v>MoveTween_Around_37</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H11" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="7" t="s">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="7" t="str">
-        <f>B11&amp;"_"&amp;C11</f>
+      <c r="D12" s="7" t="str">
+        <f>B12&amp;"_"&amp;C12</f>
         <v>MoveTween_Target_37</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H12" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="7" t="s">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="7" t="str">
+      <c r="D13" s="7" t="str">
         <f t="shared" si="0"/>
         <v>MoveTween_Target_37_0.2</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H13" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="7" t="s">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="7" t="str">
+      <c r="D14" s="7" t="str">
         <f t="shared" si="0"/>
         <v>MoveTween_Target_20</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H14" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="7" t="s">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="D14" s="7" t="str">
-        <f t="shared" ref="D14" si="1">B14&amp;"_"&amp;C14</f>
-        <v>MoveTween_TargetLimitTime_2</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="D15" s="7" t="str">
         <f t="shared" ref="D15" si="2">B15&amp;"_"&amp;C15</f>
-        <v>MoveTween_TargetQuick_2</v>
+        <v>MoveTween_TargetLimitTime_2</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D16" s="7" t="str">
         <f t="shared" ref="D16" si="3">B16&amp;"_"&amp;C16</f>
-        <v>MoveTween_Parabola_4</v>
+        <v>MoveTween_TargetQuick_2</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="7" t="s">
-        <v>46</v>
+      <c r="H17" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="7" t="str">
+        <f>B18&amp;"_"&amp;C18</f>
+        <v>MoveTween_Target_MagicBall</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D19" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/MoveTweenConfig/MoveTweenCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/MoveTweenConfig/MoveTweenCfg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\MoveTweenConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC38052F-14ED-4338-A074-01905D7AC7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2465547-3517-487A-9EE4-AA0FBDEB25E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -228,7 +228,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0;30;0</t>
+    <t>0;37;0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -683,7 +683,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/MoveTweenConfig/MoveTweenCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/MoveTweenConfig/MoveTweenCfg.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\MoveTweenConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\MoveTweenConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2465547-3517-487A-9EE4-AA0FBDEB25E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C95ECC-9A0F-462B-A393-FB3A9831EADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
   <si>
     <t>##var</t>
   </si>
@@ -229,6 +240,22 @@
   </si>
   <si>
     <t>0;37;0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>StayMoveTweenType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>StayOnGroundMoveTweenType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveTween_Stay</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveTween_StayOnGround</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -679,27 +706,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
+      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="7" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="7" customWidth="1"/>
     <col min="4" max="4" width="37" style="7" customWidth="1"/>
-    <col min="5" max="5" width="25.125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="28.875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="31.625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="19.5" style="7" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="28.88671875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="31.6640625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="7" customWidth="1"/>
     <col min="9" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -730,7 +757,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -757,7 +784,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -788,7 +815,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -813,7 +840,7 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -846,7 +873,7 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>15</v>
       </c>
@@ -864,7 +891,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
@@ -882,7 +909,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>15</v>
       </c>
@@ -900,7 +927,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
@@ -918,7 +945,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>15</v>
       </c>
@@ -936,7 +963,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>15</v>
       </c>
@@ -954,7 +981,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>15</v>
       </c>
@@ -972,7 +999,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>15</v>
       </c>
@@ -990,7 +1017,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
         <v>15</v>
       </c>
@@ -1008,7 +1035,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>15</v>
       </c>
@@ -1026,7 +1053,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>15</v>
       </c>
@@ -1044,7 +1071,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D17" s="7" t="s">
         <v>49</v>
       </c>
@@ -1055,7 +1082,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
         <v>15</v>
       </c>
@@ -1073,7 +1100,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D19" s="8" t="s">
         <v>52</v>
       </c>
@@ -1082,6 +1109,28 @@
       </c>
       <c r="H19" s="7" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D21" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D22" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="7" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/MoveTweenConfig/MoveTweenCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/MoveTweenConfig/MoveTweenCfg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\MoveTweenConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C95ECC-9A0F-462B-A393-FB3A9831EADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E33676-E4A5-47A0-AF27-98CC1A6A2092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="68">
   <si>
     <t>##var</t>
   </si>
@@ -101,9 +101,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0;37;0</t>
-  </si>
-  <si>
     <t>0;2;0;50</t>
   </si>
   <si>
@@ -113,15 +110,6 @@
     <t>0;37;0;0;5;1</t>
   </si>
   <si>
-    <t>0;50;0</t>
-  </si>
-  <si>
-    <t>0.2;37;0</t>
-  </si>
-  <si>
-    <t>0;20;0</t>
-  </si>
-  <si>
     <t>StraightMoveTweenType</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -170,10 +158,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0;3;0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>TargetLimitTimeMoveTweenType</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -215,10 +199,6 @@
   </si>
   <si>
     <t>Target_MagicBall</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0;10;0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -239,10 +219,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0;37;0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>StayMoveTweenType</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -257,6 +233,69 @@
   <si>
     <t>MoveTween_StayOnGround</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveTween_Straight_PlayerSkill</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;3;0;false;false;0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;37;0;false;false;0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;50;0;false;false;0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;37;0;false;0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2;37;0;false;0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;20;0;false;0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;20;0;2;false;0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;10;0;false;0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;75;0;false;false;0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveTween_Straight_PlayerSkill_BreakArmor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;150;0;false;false;0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveTween</t>
+  </si>
+  <si>
+    <t>Straight_37_Air</t>
+  </si>
+  <si>
+    <t>MoveTween_Straight_37_Air</t>
+  </si>
+  <si>
+    <t>StraightMoveTweenType</t>
+  </si>
+  <si>
+    <t>0;37;0;false;true;20</t>
   </si>
 </sst>
 </file>
@@ -706,11 +745,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -878,17 +917,17 @@
         <v>15</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D6" s="7" t="str">
         <f>B6&amp;"_"&amp;C6</f>
         <v>MoveTween_Straight_3</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -896,17 +935,17 @@
         <v>15</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D7" s="7" t="str">
         <f>B7&amp;"_"&amp;C7</f>
         <v>MoveTween_Straight_37</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -914,17 +953,17 @@
         <v>15</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D8" s="7" t="str">
         <f>B8&amp;"_"&amp;C8</f>
         <v>MoveTween_Straight_50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -932,17 +971,17 @@
         <v>15</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D9" s="7" t="str">
         <f t="shared" ref="D9:D14" si="0">B9&amp;"_"&amp;C9</f>
         <v>MoveTween_Tracking_2_50</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -950,17 +989,17 @@
         <v>15</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D10" s="7" t="str">
         <f t="shared" ref="D10" si="1">B10&amp;"_"&amp;C10</f>
         <v>MoveTween_Around_0</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -968,17 +1007,17 @@
         <v>15</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D11" s="7" t="str">
         <f t="shared" si="0"/>
         <v>MoveTween_Around_37</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -986,17 +1025,17 @@
         <v>15</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D12" s="7" t="str">
         <f>B12&amp;"_"&amp;C12</f>
         <v>MoveTween_Target_37</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -1004,17 +1043,17 @@
         <v>15</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D13" s="7" t="str">
         <f t="shared" si="0"/>
         <v>MoveTween_Target_37_0.2</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -1022,17 +1061,17 @@
         <v>15</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D14" s="7" t="str">
         <f t="shared" si="0"/>
         <v>MoveTween_Target_20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -1040,17 +1079,17 @@
         <v>15</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D15" s="7" t="str">
         <f t="shared" ref="D15" si="2">B15&amp;"_"&amp;C15</f>
         <v>MoveTween_TargetLimitTime_2</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -1058,28 +1097,28 @@
         <v>15</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D16" s="7" t="str">
         <f t="shared" ref="D16" si="3">B16&amp;"_"&amp;C16</f>
         <v>MoveTween_TargetQuick_2</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D17" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -1087,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D18" s="7" t="str">
         <f>B18&amp;"_"&amp;C18</f>
         <v>MoveTween_Target_MagicBall</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D19" s="8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>53</v>
@@ -1113,10 +1152,10 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D21" s="8" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H21" s="7" t="b">
         <v>1</v>
@@ -1124,13 +1163,52 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D22" s="8" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H22" s="7" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/MoveTweenConfig/MoveTweenCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/MoveTweenConfig/MoveTweenCfg.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\MoveTweenConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\MoveTweenConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E33676-E4A5-47A0-AF27-98CC1A6A2092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CD9C41-B5D9-4BB9-8A50-30926C7C8291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
   <si>
     <t>##var</t>
   </si>
@@ -81,10 +70,6 @@
     <t>这是id</t>
   </si>
   <si>
-    <t>MoveTween</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>moveType</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -114,50 +99,18 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Straight_37</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>TrackingMoveTweenType</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Tracking_2_50</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>TargetMoveTweenType</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Target_37</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>AroundMoveTweenType</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Around_37</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Straight_50</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Target_37_0.2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Target_20</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Straight_3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>TargetLimitTimeMoveTweenType</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -166,39 +119,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>TargetLimitTime_2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>TargetQuickMoveTweenType</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>TargetQuick_2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ParabolaMoveTweenType</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Around_0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>0;0;0;0;0;0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0;10;0;4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>MoveTween_Parabola_Rocket</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Target_MagicBall</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -283,12 +216,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>MoveTween</t>
-  </si>
-  <si>
-    <t>Straight_37_Air</t>
-  </si>
-  <si>
     <t>MoveTween_Straight_37_Air</t>
   </si>
   <si>
@@ -296,6 +223,46 @@
   </si>
   <si>
     <t>0;37;0;false;true;20</t>
+  </si>
+  <si>
+    <t>MoveTween_Straight_3</t>
+  </si>
+  <si>
+    <t>MoveTween_Straight_37</t>
+  </si>
+  <si>
+    <t>MoveTween_Straight_50</t>
+  </si>
+  <si>
+    <t>MoveTween_Tracking_2_50</t>
+  </si>
+  <si>
+    <t>MoveTween_Around_0</t>
+  </si>
+  <si>
+    <t>MoveTween_Around_37</t>
+  </si>
+  <si>
+    <t>MoveTween_Target_37</t>
+  </si>
+  <si>
+    <t>MoveTween_Target_37_0.2</t>
+  </si>
+  <si>
+    <t>MoveTween_Target_20</t>
+  </si>
+  <si>
+    <t>MoveTween_TargetLimitTime_2</t>
+  </si>
+  <si>
+    <t>MoveTween_TargetQuick_2</t>
+  </si>
+  <si>
+    <t>MoveTween_Target_MagicBall</t>
+  </si>
+  <si>
+    <t>0;7;0.2;3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -745,45 +712,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="37" style="7" customWidth="1"/>
-    <col min="5" max="5" width="25.109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="28.88671875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="31.6640625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="5.5" style="7" customWidth="1"/>
+    <col min="2" max="2" width="37" style="7" customWidth="1"/>
+    <col min="3" max="3" width="25.125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="28.875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="31.625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="D1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="9"/>
+      <c r="E1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -793,24 +758,22 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-    </row>
-    <row r="2" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -820,28 +783,26 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-    </row>
-    <row r="3" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="11"/>
+      <c r="E3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -851,22 +812,20 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-    </row>
-    <row r="4" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -876,30 +835,28 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-    </row>
-    <row r="5" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="D5" s="6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -909,312 +866,220 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="7" t="str">
-        <f>B6&amp;"_"&amp;C6</f>
-        <v>MoveTween_Straight_3</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="7" t="str">
-        <f>B7&amp;"_"&amp;C7</f>
-        <v>MoveTween_Straight_37</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="7" t="str">
-        <f>B8&amp;"_"&amp;C8</f>
-        <v>MoveTween_Straight_50</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="7" t="str">
-        <f t="shared" ref="D9:D14" si="0">B9&amp;"_"&amp;C9</f>
-        <v>MoveTween_Tracking_2_50</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="7" t="str">
-        <f t="shared" ref="D10" si="1">B10&amp;"_"&amp;C10</f>
-        <v>MoveTween_Around_0</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>MoveTween_Around_37</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="7" t="s">
+      <c r="F22" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="7" t="str">
-        <f>B12&amp;"_"&amp;C12</f>
-        <v>MoveTween_Target_37</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>MoveTween_Target_37_0.2</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>MoveTween_Target_20</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="7" t="str">
-        <f t="shared" ref="D15" si="2">B15&amp;"_"&amp;C15</f>
-        <v>MoveTween_TargetLimitTime_2</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="7" t="str">
-        <f t="shared" ref="D16" si="3">B16&amp;"_"&amp;C16</f>
-        <v>MoveTween_TargetQuick_2</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D17" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="7" t="str">
-        <f>B18&amp;"_"&amp;C18</f>
-        <v>MoveTween_Target_MagicBall</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D19" s="8" t="s">
+      <c r="F24" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D21" s="8" t="s">
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D22" s="8" t="s">
+      <c r="E27" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H22" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D24" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D25" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E3:F3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/MoveTweenConfig/MoveTweenCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/MoveTweenConfig/MoveTweenCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\MoveTweenConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CD9C41-B5D9-4BB9-8A50-30926C7C8291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19409CE-C91B-4930-AD6A-DF0212F1AD9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
   <si>
     <t>##var</t>
   </si>
@@ -204,18 +204,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0;75;0;false;false;0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>MoveTween_Straight_PlayerSkill_BreakArmor</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0;150;0;false;false;0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>MoveTween_Straight_37_Air</t>
   </si>
   <si>
@@ -261,7 +253,11 @@
     <t>MoveTween_Target_MagicBall</t>
   </si>
   <si>
-    <t>0;7;0.2;3</t>
+    <t>0;300;0;false;false;0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;4;0;1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -716,7 +712,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -869,7 +865,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>22</v>
@@ -880,7 +876,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>22</v>
@@ -891,7 +887,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>22</v>
@@ -902,7 +898,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>23</v>
@@ -913,7 +909,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>25</v>
@@ -924,7 +920,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>25</v>
@@ -935,7 +931,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>24</v>
@@ -946,7 +942,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>24</v>
@@ -957,7 +953,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>20</v>
@@ -968,7 +964,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>26</v>
@@ -979,7 +975,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>28</v>
@@ -996,12 +992,12 @@
         <v>29</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>24</v>
@@ -1051,29 +1047,29 @@
         <v>22</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
